--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_64_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_64_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.500148106300653, 3.049652623201492]</t>
+          <t>[2.515794151817989, 3.0340065776841563]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.02920405220905531, 0.256303501953393]</t>
+          <t>[-0.029099173721518934, 0.25619862346585665]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.1161385314921191</v>
+        <v>0.1158778165592089</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1161385314921191</v>
+        <v>0.1158778165592089</v>
       </c>
       <c r="W2" t="n">
         <v>4.084864864865001</v>
